--- a/06-03-2023/data/output/xlsx/sample_0/1_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/1_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="198">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,271 +352,262 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15,pairs_of_parentheses__16,pairs_of_parentheses__17,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
 </sst>
 </file>
@@ -956,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,19 +1002,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>0.115702479338843</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="G2">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H2">
-        <v>-0.0005299855910167461</v>
+        <v>-0.001948455432425417</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1016,19 +1025,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F3">
-        <v>0.1101796407185629</v>
+        <v>0.1180637544273908</v>
       </c>
       <c r="G3">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H3">
-        <v>-0.006052824211296853</v>
+        <v>-0.01119476260667733</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1039,22 +1048,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>0.5592401428949941</v>
+        <v>0.2398369236932431</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F4">
-        <v>0.3636363636363636</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H4">
-        <v>0.2474038987065039</v>
+        <v>0.1207414829659319</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1065,22 +1074,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.5773481323085253</v>
+        <v>0.03853688304681952</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F5">
-        <v>0.4444444444444444</v>
+        <v>0.3</v>
       </c>
       <c r="G5">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H5">
-        <v>0.3282119795145847</v>
+        <v>0.1707414829659319</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1094,19 +1103,19 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>0.5773481323085253</v>
+        <v>0.05379428090467982</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F6">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H6">
-        <v>0.3282119795145847</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1120,19 +1129,19 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0.5910077360502186</v>
+        <v>0.03784774363547784</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H7">
-        <v>0.3837675350701403</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1146,19 +1155,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.5302522141538654</v>
+        <v>-0.2081427233718338</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H8">
-        <v>0.2837675350701403</v>
+        <v>0.07074148296593188</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1169,22 +1178,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.5680583050411979</v>
-      </c>
-      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>111</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H9">
-        <v>0.3837675350701403</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1195,22 +1201,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0.6776946305352887</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H10">
-        <v>0.5504342017368069</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1221,22 +1224,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D11">
-        <v>0.5743761640714669</v>
+        <v>0.04677771268187782</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="G11">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H11">
-        <v>0.3837675350701403</v>
+        <v>0.005876618101067016</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1247,19 +1250,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
+        <v>310</v>
+      </c>
+      <c r="D12">
+        <v>0.02151600581389068</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
       </c>
       <c r="F12">
-        <v>0.107728337236534</v>
+        <v>0.1580645161290322</v>
       </c>
       <c r="G12">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H12">
-        <v>-0.008504127693325772</v>
+        <v>0.02880599909496412</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1270,22 +1276,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>0.2409305382423647</v>
+        <v>0.01605560274735259</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F13">
-        <v>0.1220338983050848</v>
+        <v>0.1732673267326733</v>
       </c>
       <c r="G13">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H13">
-        <v>0.005801433375225026</v>
+        <v>0.04400880969860513</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1296,22 +1302,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>0.2463738158692805</v>
+        <v>0.01344915581702023</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F14">
-        <v>0.12</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="G14">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H14">
-        <v>0.003767535070140271</v>
+        <v>0.01547832507119504</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1322,22 +1328,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>0.2346038510097432</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0.1384615384615385</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="G15">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H15">
-        <v>0.02222907353167874</v>
+        <v>-0.006809537442231395</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1348,22 +1351,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>0.256284412714944</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
       </c>
       <c r="F16">
-        <v>0.141025641025641</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G16">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H16">
-        <v>0.0247931760957813</v>
+        <v>-0.01161145821053872</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1374,22 +1374,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>0.2957991747832604</v>
-      </c>
-      <c r="E17" t="s">
-        <v>118</v>
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
       </c>
       <c r="F17">
-        <v>0.1730769230769231</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="G17">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H17">
-        <v>0.05684445814706335</v>
+        <v>-0.03623526122011464</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1403,19 +1400,19 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0.351029816423218</v>
+        <v>0.1127703668985552</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F18">
-        <v>0.2307692307692308</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G18">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H18">
-        <v>0.1145367658393711</v>
+        <v>0.02458763681208573</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1426,22 +1423,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19">
-        <v>0.4253666055482909</v>
+        <v>0.3100387395303991</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F19">
-        <v>0.2941176470588235</v>
+        <v>0.1712538226299694</v>
       </c>
       <c r="G19">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H19">
-        <v>0.1778851821289638</v>
+        <v>0.04199530559590128</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1452,22 +1449,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D20">
-        <v>0.3798061547472137</v>
+        <v>0.3276523912671451</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20">
-        <v>0.1538461538461539</v>
+        <v>0.189753320683112</v>
       </c>
       <c r="G20">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H20">
-        <v>0.03761368891629413</v>
+        <v>0.06049480364904383</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1478,22 +1475,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>0.2464821945697739</v>
+        <v>0.1504836223036338</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F21">
-        <v>0.1685823754789272</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="G21">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H21">
-        <v>0.05234991054906749</v>
+        <v>0.07586968809413699</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1504,22 +1501,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>0.2246584832158915</v>
+        <v>0.171215356118201</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22">
-        <v>0.1666666666666667</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G22">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H22">
-        <v>0.05043420173680693</v>
+        <v>0.001176265574627522</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1530,22 +1527,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>0.2176631913788216</v>
+        <v>0.2043489844002899</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23">
-        <v>0.1481481481481481</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G23">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H23">
-        <v>0.03191568321828842</v>
+        <v>0.047212071201226</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1556,22 +1553,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>0.2726291698247821</v>
+        <v>0.3282829280974106</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>0.25</v>
       </c>
       <c r="G24">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H24">
-        <v>0.1337675350701403</v>
+        <v>0.1207414829659319</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1582,22 +1579,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>0.2813669536688378</v>
+        <v>0.1574649146397896</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G25">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H25">
-        <v>0.1337675350701403</v>
+        <v>0.07074148296593188</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1608,22 +1605,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.2937567566192065</v>
+        <v>0.1574649146397896</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F26">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="G26">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H26">
-        <v>0.1059897572923625</v>
+        <v>0.07074148296593188</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1637,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>0.1856917558252436</v>
+        <v>0.2309138862630377</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F27">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G27">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H27">
-        <v>0.008767535070140275</v>
+        <v>0.1207414829659319</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1660,22 +1657,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>0.4022731449607284</v>
+        <v>0.3123707122224583</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F28">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G28">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H28">
-        <v>0.1337675350701403</v>
+        <v>0.2707414829659319</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1686,22 +1683,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.436647881483336</v>
+        <v>0.4204356635711777</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H29">
-        <v>0.2171008684034736</v>
+        <v>0.3707414829659319</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1715,19 +1712,19 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>0.436647881483336</v>
+        <v>0.3011880989817485</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F30">
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H30">
-        <v>0.2171008684034736</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1738,22 +1735,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31">
-        <v>0.8165899656912678</v>
+        <v>0.279062181695065</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.2024096385542169</v>
       </c>
       <c r="G31">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H31">
-        <v>0.8837675350701403</v>
+        <v>0.07315112152014874</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1764,22 +1761,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>0.2251100838685031</v>
+        <v>0.3011880989817485</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F32">
-        <v>0.1824817518248175</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H32">
-        <v>0.06624928689495779</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1790,22 +1787,22 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0.8165899656912678</v>
+        <v>0.525026472603582</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G33">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H33">
-        <v>0.8837675350701403</v>
+        <v>0.3707414829659319</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1819,19 +1816,19 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.8165899656912678</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H34">
-        <v>0.8837675350701403</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1842,22 +1839,22 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.2155201654071338</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F35">
-        <v>0.2112211221122112</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H35">
-        <v>0.0949886571823515</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1868,22 +1865,22 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.2487617020270476</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F36">
-        <v>0.2270531400966184</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H36">
-        <v>0.1108206751667586</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1894,22 +1891,22 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.2754248988325743</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>0.2269938650306748</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H37">
-        <v>0.1107614001008151</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1920,22 +1917,22 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.2208926031004605</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F38">
-        <v>0.2232142857142857</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H38">
-        <v>0.106981820784426</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1946,22 +1943,22 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0.2289241503358262</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F39">
-        <v>0.2134831460674157</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H39">
-        <v>0.097250681137556</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1972,22 +1969,22 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0.192970059991173</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F40">
-        <v>0.2033898305084746</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H40">
-        <v>0.08715736557861486</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1998,22 +1995,22 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0.2263483661681944</v>
+        <v>0.8441389107784618</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F41">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H41">
-        <v>0.08376753507014029</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2024,19 +2021,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
+        <v>296</v>
+      </c>
+      <c r="D42">
+        <v>0.2928192154138957</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
       </c>
       <c r="F42">
-        <v>0.1154618473895582</v>
+        <v>0.222972972972973</v>
       </c>
       <c r="G42">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H42">
-        <v>-0.0007706175403014853</v>
+        <v>0.09371445593890484</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2047,19 +2047,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
+        <v>215</v>
+      </c>
+      <c r="D43">
+        <v>0.2400092750822673</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
       </c>
       <c r="F43">
-        <v>0.1140262361251261</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="G43">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H43">
-        <v>-0.00220622880473359</v>
+        <v>0.08004380854732723</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2070,22 +2073,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44">
-        <v>0.5202565782694737</v>
+        <v>0.1140515516006163</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="G44">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H44">
-        <v>0.3837675350701403</v>
+        <v>0.09965714561653427</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2096,22 +2099,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45">
-        <v>0.6459227405759499</v>
+        <v>0.1217645228678123</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F45">
-        <v>0.75</v>
+        <v>0.2113821138211382</v>
       </c>
       <c r="G45">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H45">
-        <v>0.6337675350701403</v>
+        <v>0.0821235967870701</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2122,22 +2125,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46">
-        <v>0.1449450051358653</v>
+        <v>0.07658340008814364</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="G46">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H46">
-        <v>0.3837675350701403</v>
+        <v>0.06661777162572569</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2148,22 +2151,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
+        <v>74</v>
       </c>
       <c r="D47">
-        <v>0.2895702926345701</v>
+        <v>0.140247191318477</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F47">
-        <v>0.1278890600924499</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="G47">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H47">
-        <v>0.01165659516259021</v>
+        <v>0.0869576991821481</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2174,22 +2177,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>0.3129140431249927</v>
+        <v>0.210203018028292</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F48">
-        <v>0.1284210526315789</v>
+        <v>0.25</v>
       </c>
       <c r="G48">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H48">
-        <v>0.01218858770171921</v>
+        <v>0.1207414829659319</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2200,22 +2203,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49">
-        <v>0.269868241230013</v>
-      </c>
-      <c r="E49" t="s">
-        <v>148</v>
+        <v>996</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
       </c>
       <c r="F49">
-        <v>0.1205211726384365</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="G49">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H49">
-        <v>0.004288707708576756</v>
+        <v>-0.0007444608091685401</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2226,22 +2226,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50">
-        <v>0.2697148460476044</v>
-      </c>
-      <c r="E50" t="s">
-        <v>149</v>
+        <v>988</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
       </c>
       <c r="F50">
-        <v>0.1287553648068669</v>
+        <v>0.1265182186234818</v>
       </c>
       <c r="G50">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H50">
-        <v>0.01252289987700722</v>
+        <v>-0.002740298410586345</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2252,22 +2249,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>0.3014823752043809</v>
+        <v>0.1841242637133722</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F51">
-        <v>0.1298701298701299</v>
+        <v>0.2</v>
       </c>
       <c r="G51">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H51">
-        <v>0.01363766494027013</v>
+        <v>0.07074148296593188</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2278,22 +2275,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>0.3405846309254281</v>
+        <v>0.2867495177532481</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F52">
-        <v>0.1584158415841584</v>
+        <v>0.375</v>
       </c>
       <c r="G52">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H52">
-        <v>0.04218337665429869</v>
+        <v>0.2457414829659319</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2304,22 +2301,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>0.4138799633924795</v>
+        <v>0.02282920989590145</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F53">
-        <v>0.2258064516129032</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G53">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H53">
-        <v>0.1095739866830435</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2330,22 +2327,22 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>0.5089295462278799</v>
+        <v>0.05544619685441302</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F54">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G54">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H54">
-        <v>0.2504342017368069</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2356,22 +2353,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
-      </c>
-      <c r="D55">
-        <v>0.3366640067633289</v>
-      </c>
-      <c r="E55" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.2592592592592592</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H55">
-        <v>0.1430267943293995</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2382,22 +2376,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
-      </c>
-      <c r="D56">
-        <v>0.3528994042161875</v>
-      </c>
-      <c r="E56" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.2748538011695906</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H56">
-        <v>0.1586213362397309</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2408,22 +2399,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <v>0.3657597461181957</v>
-      </c>
-      <c r="E57" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
       </c>
       <c r="F57">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H57">
-        <v>0.2171008684034736</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2434,22 +2422,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="D58">
-        <v>0.2847488539965701</v>
+        <v>0.3008711943884553</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F58">
-        <v>0.25</v>
+        <v>0.1540880503144654</v>
       </c>
       <c r="G58">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H58">
-        <v>0.1337675350701403</v>
+        <v>0.02482953328039728</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2460,22 +2448,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="D59">
-        <v>0.2716338144340434</v>
+        <v>0.2575508821845639</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F59">
-        <v>0.1666666666666667</v>
+        <v>0.1502057613168724</v>
       </c>
       <c r="G59">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H59">
-        <v>0.05043420173680693</v>
+        <v>0.02094724428280431</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2486,22 +2474,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="D60">
-        <v>0.5047359936664672</v>
+        <v>0.07092579945121766</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60">
-        <v>0.3333333333333333</v>
+        <v>0.14375</v>
       </c>
       <c r="G60">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H60">
-        <v>0.2171008684034736</v>
+        <v>0.01449148296593186</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2512,22 +2500,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>0.5047359936664672</v>
-      </c>
-      <c r="E61" t="s">
-        <v>160</v>
+        <v>236</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>0.3333333333333333</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="G61">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H61">
-        <v>0.2171008684034736</v>
+        <v>-0.002139872966271522</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2538,22 +2523,22 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62">
-        <v>0.5917724812515009</v>
+        <v>0.03985003700525733</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="G62">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H62">
-        <v>0.3837675350701403</v>
+        <v>0.01445405781623127</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2566,20 +2551,17 @@
       <c r="C63">
         <v>110</v>
       </c>
-      <c r="D63">
-        <v>0.1835522893558366</v>
-      </c>
-      <c r="E63" t="s">
-        <v>162</v>
+      <c r="D63" t="s">
+        <v>111</v>
       </c>
       <c r="F63">
-        <v>0.2909090909090909</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="G63">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H63">
-        <v>0.1746766259792312</v>
+        <v>-0.001985789761340867</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2590,22 +2572,22 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>0.1903740129832878</v>
+        <v>0.1622172917763408</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F64">
-        <v>0.2903225806451613</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G64">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H64">
-        <v>0.1740901157153016</v>
+        <v>0.02458763681208573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2616,22 +2598,22 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>0.2872901251895233</v>
+        <v>0.110349878445566</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F65">
-        <v>0.2898550724637681</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G65">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H65">
-        <v>0.1736226075339084</v>
+        <v>0.047212071201226</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2642,22 +2624,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66">
-        <v>0.2897127163658565</v>
+        <v>0.3478775558660402</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F66">
-        <v>0.3018867924528302</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="G66">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H66">
-        <v>0.1856543275229705</v>
+        <v>0.1640748162992652</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2668,22 +2650,22 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67">
-        <v>0.3165148179863853</v>
+        <v>0.3370638985098369</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F67">
-        <v>0.28125</v>
+        <v>0.3202247191011236</v>
       </c>
       <c r="G67">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H67">
-        <v>0.1650175350701403</v>
+        <v>0.1909662020670555</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2694,22 +2676,22 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>0.3354396702418528</v>
+        <v>0.303459642056911</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F68">
-        <v>0.32</v>
+        <v>0.375</v>
       </c>
       <c r="G68">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H68">
-        <v>0.2037675350701403</v>
+        <v>0.2457414829659319</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2720,22 +2702,22 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>0.3002376981461778</v>
+        <v>0.3744133039212302</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F69">
-        <v>0.2941176470588235</v>
+        <v>0.4</v>
       </c>
       <c r="G69">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H69">
-        <v>0.1778851821289638</v>
+        <v>0.2707414829659319</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2746,22 +2728,22 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>0.3931804829116141</v>
+        <v>0.3744133039212302</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F70">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="G70">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H70">
-        <v>0.2474038987065039</v>
+        <v>0.2707414829659319</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2772,19 +2754,22 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
-      </c>
-      <c r="D71" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>0.419960581571914</v>
+      </c>
+      <c r="E71" t="s">
+        <v>167</v>
       </c>
       <c r="F71">
-        <v>0.1162324649298597</v>
+        <v>0.5</v>
       </c>
       <c r="G71">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.3707414829659319</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2795,19 +2780,22 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>0.06212551468777176</v>
+      </c>
+      <c r="E72" t="s">
+        <v>168</v>
       </c>
       <c r="F72">
-        <v>0.1073446327683616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G72">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H72">
-        <v>-0.008887832161498146</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2818,19 +2806,22 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>0.3376390428888331</v>
+      </c>
+      <c r="E73" t="s">
+        <v>169</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G73">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H73">
-        <v>-0.1162324649298597</v>
+        <v>0.3707414829659319</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2841,22 +2832,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>0.414439708279399</v>
-      </c>
-      <c r="E74" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.2066115702479339</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H74">
-        <v>0.09037910531807417</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2867,22 +2855,22 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75">
-        <v>0.226086664683172</v>
+        <v>0.3376947191411835</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F75">
-        <v>0.2592592592592592</v>
+        <v>0.3565217391304348</v>
       </c>
       <c r="G75">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H75">
-        <v>0.1430267943293995</v>
+        <v>0.2272632220963667</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2893,22 +2881,22 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>0.2283068408642309</v>
+        <v>0.173277471562988</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F76">
-        <v>0.3225806451612903</v>
+        <v>0.3218390804597701</v>
       </c>
       <c r="G76">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H76">
-        <v>0.2063481802314306</v>
+        <v>0.192580563425702</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2919,22 +2907,22 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D77">
-        <v>0.3582312019619278</v>
+        <v>0.1412632281244949</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F77">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="G77">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H77">
-        <v>0.3123389636415688</v>
+        <v>0.2635986258230747</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2945,22 +2933,22 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D78">
-        <v>0.3235538269118942</v>
+        <v>0.1372319056446684</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F78">
-        <v>0.4545454545454545</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="G78">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H78">
-        <v>0.3383129896155948</v>
+        <v>0.2929637051881541</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2971,22 +2959,22 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79">
-        <v>0.3249191919717486</v>
+        <v>0.05931834209522042</v>
       </c>
       <c r="E79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F79">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G79">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H79">
-        <v>0.3837675350701403</v>
+        <v>0.1207414829659319</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2997,22 +2985,22 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>0.3298819526034691</v>
+        <v>0.08745708447828278</v>
       </c>
       <c r="E80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F80">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G80">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H80">
-        <v>0.3837675350701403</v>
+        <v>0.1564557686802176</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3023,19 +3011,22 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>0.1933946149362626</v>
+      </c>
+      <c r="E81" t="s">
+        <v>176</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G81">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H81">
-        <v>-0.1162324649298597</v>
+        <v>0.1832414829659319</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3046,22 +3037,22 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>0.2838107862459857</v>
+        <v>0.2659293145379684</v>
       </c>
       <c r="E82" t="s">
         <v>177</v>
       </c>
       <c r="F82">
-        <v>0.137855579868709</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G82">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H82">
-        <v>0.02162311493884925</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3072,22 +3063,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D83">
-        <v>0.3590046319598393</v>
+        <v>0.3505254015066049</v>
       </c>
       <c r="E83" t="s">
         <v>178</v>
       </c>
       <c r="F83">
-        <v>0.2222222222222222</v>
+        <v>0.1293881644934805</v>
       </c>
       <c r="G83">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H83">
-        <v>0.1059897572923625</v>
+        <v>0.0001296474594123243</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3098,22 +3089,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>0.8165899656912678</v>
-      </c>
-      <c r="E84" t="s">
-        <v>179</v>
+        <v>704</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.1107954545454545</v>
       </c>
       <c r="G84">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H84">
-        <v>0.8837675350701403</v>
+        <v>-0.01846306248861358</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3124,22 +3112,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85">
-        <v>0.8165899656912678</v>
+        <v>0.1156678113336727</v>
       </c>
       <c r="E85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="G85">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H85">
-        <v>0.8837675350701403</v>
+        <v>0.07242215523483944</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3150,22 +3138,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86">
-        <v>0.8165899656912678</v>
+        <v>0.2157776538537587</v>
       </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="G86">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H86">
-        <v>0.8837675350701403</v>
+        <v>0.08126779875540555</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3176,22 +3164,22 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87">
-        <v>0.8165899656912678</v>
+        <v>-0.04179758520724806</v>
       </c>
       <c r="E87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G87">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H87">
-        <v>0.8837675350701403</v>
+        <v>0.1784337906582396</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3202,22 +3190,22 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>0.8165899656912678</v>
+        <v>-0.02969712729002233</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G88">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H88">
-        <v>0.8837675350701403</v>
+        <v>0.2040748162992652</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3228,22 +3216,22 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>0.8165899656912678</v>
+        <v>0.01985160633223869</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G89">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H89">
-        <v>0.8837675350701403</v>
+        <v>0.1434687556932046</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3254,22 +3242,22 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>0.8165899656912678</v>
+        <v>-0.1011194032564804</v>
       </c>
       <c r="E90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G90">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H90">
-        <v>0.8837675350701403</v>
+        <v>0.1207414829659319</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3280,22 +3268,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0.8165899656912678</v>
-      </c>
-      <c r="E91" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H91">
-        <v>0.8837675350701403</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3306,22 +3291,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.3103870446726421</v>
-      </c>
-      <c r="E92" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.2553191489361702</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H92">
-        <v>0.1390866840063105</v>
+        <v>-0.1292585170340681</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3332,22 +3314,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93">
-        <v>0.2645575177760782</v>
+        <v>0.2538897837073431</v>
       </c>
       <c r="E93" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F93">
-        <v>0.2909090909090909</v>
+        <v>0.1630901287553648</v>
       </c>
       <c r="G93">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H93">
-        <v>0.1746766259792312</v>
+        <v>0.03383161172129667</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3358,22 +3340,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94">
-        <v>0.3703902356091247</v>
+        <v>0.2076936837796621</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F94">
-        <v>0.3333333333333333</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="G94">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H94">
-        <v>0.2171008684034736</v>
+        <v>0.08813278731375795</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3384,22 +3366,22 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>0.4502523428157303</v>
+        <v>0.0512320339866041</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F95">
-        <v>0.3809523809523809</v>
+        <v>0.25</v>
       </c>
       <c r="G95">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H95">
-        <v>0.2647199160225212</v>
+        <v>0.1207414829659319</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3410,22 +3392,22 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>0.6550495616160612</v>
+        <v>0.3163259945608759</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="G96">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H96">
-        <v>0.5980532493558546</v>
+        <v>0.3707414829659319</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3436,22 +3418,22 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0.5777500401802497</v>
+        <v>0.7840695013628957</v>
       </c>
       <c r="E97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F97">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H97">
-        <v>0.4837675350701403</v>
+        <v>0.8707414829659319</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3462,22 +3444,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98">
-        <v>0.5202470071106234</v>
+        <v>0.08080845828653829</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G98">
-        <v>0.1162324649298597</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="H98">
-        <v>0.3837675350701403</v>
+        <v>0.07074148296593188</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3488,22 +3470,178 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99">
-        <v>0.8165899656912678</v>
+        <v>0.1098127941399594</v>
       </c>
       <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="G99">
+        <v>0.1292585170340681</v>
+      </c>
+      <c r="H99">
+        <v>0.1151859274103763</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>0.129001690727272</v>
+      </c>
+      <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="G100">
+        <v>0.1292585170340681</v>
+      </c>
+      <c r="H100">
+        <v>0.08813278731375795</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>0.1495121571768439</v>
+      </c>
+      <c r="E101" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="G101">
+        <v>0.1292585170340681</v>
+      </c>
+      <c r="H101">
+        <v>0.1060356006129907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>0.2667027141481609</v>
+      </c>
+      <c r="E102" t="s">
         <v>194</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>0.1162324649298597</v>
-      </c>
-      <c r="H99">
-        <v>0.8837675350701403</v>
+      <c r="F102">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="G102">
+        <v>0.1292585170340681</v>
+      </c>
+      <c r="H102">
+        <v>0.2343778466022955</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>0.07767572560327936</v>
+      </c>
+      <c r="E103" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103">
+        <v>0.375</v>
+      </c>
+      <c r="G103">
+        <v>0.1292585170340681</v>
+      </c>
+      <c r="H103">
+        <v>0.2457414829659319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>0.06949685820564366</v>
+      </c>
+      <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G104">
+        <v>0.1292585170340681</v>
+      </c>
+      <c r="H104">
+        <v>0.2040748162992652</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>0.2501667556361558</v>
+      </c>
+      <c r="E105" t="s">
+        <v>197</v>
+      </c>
+      <c r="F105">
+        <v>0.4</v>
+      </c>
+      <c r="G105">
+        <v>0.1292585170340681</v>
+      </c>
+      <c r="H105">
+        <v>0.2707414829659319</v>
       </c>
     </row>
   </sheetData>
